--- a/Error to solve - list of companies with slash in name .xlsx
+++ b/Error to solve - list of companies with slash in name .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blow\Desktop\Work\Quant_project\Scrape_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B667EEC-FC63-490B-AD00-AD6F1B24E1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFFE4FE-35E2-4F6A-8C1A-F65FC97C1DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAE651B9-5888-4A65-943B-2D740FB3BB34}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>AMARIN CORP PLC\UK (AMRN) (CIK 0000897448)</t>
   </si>
@@ -83,13 +83,25 @@
   </si>
   <si>
     <t>GLADSTONE INVESTMENT CORPORATION\\DE (CIK 0001321741)</t>
+  </si>
+  <si>
+    <t>The system cannot find the path specified: 'c:\\Users\\blow\\Desktop\\Work\\Quant_project\\Scrape_Code\\Data Directory\\UNIVERSAL DISPLAY CORP \\PA\\'</t>
+  </si>
+  <si>
+    <t>Company # 1763</t>
+  </si>
+  <si>
+    <t>Length mismatch ( 4 column headers but there's an extra column for notes) - https://www.sec.gov/Archives/edgar/data/1056903/000105690320000018/R5.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/92116/000105690320000018/R5.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +131,12 @@
       <sz val="11"/>
       <name val="Calibri (body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1F1F1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -151,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEECCEFE-8BF7-457E-9660-7E13407C7B30}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +522,27 @@
       </c>
       <c r="B3" s="2"/>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
